--- a/_data/SCC1927-2019-clean-v2.xlsx
+++ b/_data/SCC1927-2019-clean-v2.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\GitHub Repos\Stanley-Cup-Champs-1927-2019\_data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F17E9D-5458-4C01-BC4F-BA7D98C85E52}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="cleaned_data" sheetId="1" r:id="rId1"/>
     <sheet name="total_apps_coach" sheetId="2" r:id="rId2"/>
     <sheet name="total_apps_team" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -1392,8 +1386,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1456,14 +1450,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1510,7 +1496,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1542,27 +1528,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1594,24 +1562,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1787,28 +1737,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q93"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5703125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1861,7 +1797,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>1927</v>
       </c>
@@ -1914,7 +1850,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1928</v>
       </c>
@@ -1967,7 +1903,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>1929</v>
       </c>
@@ -2020,7 +1956,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>1930</v>
       </c>
@@ -2073,7 +2009,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>1931</v>
       </c>
@@ -2126,7 +2062,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>1932</v>
       </c>
@@ -2179,7 +2115,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>1933</v>
       </c>
@@ -2232,7 +2168,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>1934</v>
       </c>
@@ -2285,7 +2221,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>1935</v>
       </c>
@@ -2338,7 +2274,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>1936</v>
       </c>
@@ -2391,7 +2327,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>1937</v>
       </c>
@@ -2444,7 +2380,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>1938</v>
       </c>
@@ -2497,7 +2433,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>1939</v>
       </c>
@@ -2544,7 +2480,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>1940</v>
       </c>
@@ -2591,7 +2527,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>1941</v>
       </c>
@@ -2638,7 +2574,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>1942</v>
       </c>
@@ -2685,7 +2621,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>1943</v>
       </c>
@@ -2732,7 +2668,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>1944</v>
       </c>
@@ -2779,7 +2715,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>1945</v>
       </c>
@@ -2826,7 +2762,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>1946</v>
       </c>
@@ -2873,7 +2809,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>1947</v>
       </c>
@@ -2920,7 +2856,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>1948</v>
       </c>
@@ -2967,7 +2903,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>1949</v>
       </c>
@@ -3014,7 +2950,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>1950</v>
       </c>
@@ -3061,7 +2997,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17">
       <c r="A26" s="1">
         <v>1951</v>
       </c>
@@ -3108,7 +3044,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17">
       <c r="A27" s="1">
         <v>1952</v>
       </c>
@@ -3155,7 +3091,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17">
       <c r="A28" s="1">
         <v>1953</v>
       </c>
@@ -3202,7 +3138,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17">
       <c r="A29" s="1">
         <v>1954</v>
       </c>
@@ -3249,7 +3185,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17">
       <c r="A30" s="1">
         <v>1955</v>
       </c>
@@ -3296,7 +3232,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17">
       <c r="A31" s="1">
         <v>1956</v>
       </c>
@@ -3343,7 +3279,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17">
       <c r="A32" s="1">
         <v>1957</v>
       </c>
@@ -3390,7 +3326,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17">
       <c r="A33" s="1">
         <v>1958</v>
       </c>
@@ -3437,7 +3373,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17">
       <c r="A34" s="1">
         <v>1959</v>
       </c>
@@ -3484,7 +3420,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17">
       <c r="A35" s="1">
         <v>1960</v>
       </c>
@@ -3531,7 +3467,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17">
       <c r="A36" s="1">
         <v>1961</v>
       </c>
@@ -3578,7 +3514,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17">
       <c r="A37" s="1">
         <v>1962</v>
       </c>
@@ -3625,7 +3561,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17">
       <c r="A38" s="1">
         <v>1963</v>
       </c>
@@ -3672,7 +3608,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17">
       <c r="A39" s="1">
         <v>1964</v>
       </c>
@@ -3719,7 +3655,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17">
       <c r="A40" s="1">
         <v>1965</v>
       </c>
@@ -3766,7 +3702,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17">
       <c r="A41" s="1">
         <v>1966</v>
       </c>
@@ -3813,7 +3749,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17">
       <c r="A42" s="1">
         <v>1967</v>
       </c>
@@ -3860,7 +3796,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17">
       <c r="A43" s="1">
         <v>1968</v>
       </c>
@@ -3913,7 +3849,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17">
       <c r="A44" s="1">
         <v>1969</v>
       </c>
@@ -3966,7 +3902,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17">
       <c r="A45" s="1">
         <v>1970</v>
       </c>
@@ -4019,7 +3955,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17">
       <c r="A46" s="1">
         <v>1971</v>
       </c>
@@ -4072,7 +4008,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17">
       <c r="A47" s="1">
         <v>1972</v>
       </c>
@@ -4125,7 +4061,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17">
       <c r="A48" s="1">
         <v>1973</v>
       </c>
@@ -4178,7 +4114,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17">
       <c r="A49" s="1">
         <v>1974</v>
       </c>
@@ -4231,7 +4167,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17">
       <c r="A50" s="1">
         <v>1975</v>
       </c>
@@ -4284,7 +4220,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17">
       <c r="A51" s="1">
         <v>1976</v>
       </c>
@@ -4337,7 +4273,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17">
       <c r="A52" s="1">
         <v>1977</v>
       </c>
@@ -4390,7 +4326,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17">
       <c r="A53" s="1">
         <v>1978</v>
       </c>
@@ -4443,7 +4379,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17">
       <c r="A54" s="1">
         <v>1979</v>
       </c>
@@ -4496,7 +4432,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17">
       <c r="A55" s="1">
         <v>1980</v>
       </c>
@@ -4549,7 +4485,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17">
       <c r="A56" s="1">
         <v>1981</v>
       </c>
@@ -4602,7 +4538,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17">
       <c r="A57" s="1">
         <v>1982</v>
       </c>
@@ -4655,7 +4591,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17">
       <c r="A58" s="1">
         <v>1983</v>
       </c>
@@ -4708,7 +4644,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17">
       <c r="A59" s="1">
         <v>1984</v>
       </c>
@@ -4761,7 +4697,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17">
       <c r="A60" s="1">
         <v>1985</v>
       </c>
@@ -4814,7 +4750,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17">
       <c r="A61" s="1">
         <v>1986</v>
       </c>
@@ -4867,7 +4803,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17">
       <c r="A62" s="1">
         <v>1987</v>
       </c>
@@ -4920,7 +4856,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17">
       <c r="A63" s="1">
         <v>1988</v>
       </c>
@@ -4973,7 +4909,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17">
       <c r="A64" s="1">
         <v>1989</v>
       </c>
@@ -5026,7 +4962,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17">
       <c r="A65" s="1">
         <v>1990</v>
       </c>
@@ -5079,7 +5015,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17">
       <c r="A66" s="1">
         <v>1991</v>
       </c>
@@ -5132,7 +5068,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17">
       <c r="A67" s="1">
         <v>1992</v>
       </c>
@@ -5185,7 +5121,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17">
       <c r="A68" s="1">
         <v>1993</v>
       </c>
@@ -5238,7 +5174,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17">
       <c r="A69" s="1">
         <v>1994</v>
       </c>
@@ -5291,7 +5227,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17">
       <c r="A70" s="1">
         <v>1995</v>
       </c>
@@ -5344,7 +5280,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17">
       <c r="A71" s="1">
         <v>1996</v>
       </c>
@@ -5397,7 +5333,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17">
       <c r="A72" s="1">
         <v>1997</v>
       </c>
@@ -5450,7 +5386,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17">
       <c r="A73" s="1">
         <v>1998</v>
       </c>
@@ -5503,7 +5439,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17">
       <c r="A74" s="1">
         <v>1999</v>
       </c>
@@ -5556,7 +5492,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17">
       <c r="A75" s="1">
         <v>2000</v>
       </c>
@@ -5609,7 +5545,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17">
       <c r="A76" s="1">
         <v>2001</v>
       </c>
@@ -5662,7 +5598,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17">
       <c r="A77" s="1">
         <v>2002</v>
       </c>
@@ -5715,7 +5651,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17">
       <c r="A78" s="1">
         <v>2003</v>
       </c>
@@ -5768,7 +5704,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17">
       <c r="A79" s="1">
         <v>2004</v>
       </c>
@@ -5821,7 +5757,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17">
       <c r="A80" s="1">
         <v>2006</v>
       </c>
@@ -5874,7 +5810,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17">
       <c r="A81" s="1">
         <v>2007</v>
       </c>
@@ -5927,7 +5863,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17">
       <c r="A82" s="1">
         <v>2008</v>
       </c>
@@ -5980,7 +5916,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17">
       <c r="A83" s="1">
         <v>2009</v>
       </c>
@@ -6033,7 +5969,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17">
       <c r="A84" s="1">
         <v>2010</v>
       </c>
@@ -6086,7 +6022,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17">
       <c r="A85" s="1">
         <v>2011</v>
       </c>
@@ -6139,7 +6075,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17">
       <c r="A86" s="1">
         <v>2012</v>
       </c>
@@ -6192,7 +6128,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17">
       <c r="A87" s="1">
         <v>2013</v>
       </c>
@@ -6245,7 +6181,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17">
       <c r="A88" s="1">
         <v>2014</v>
       </c>
@@ -6298,7 +6234,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17">
       <c r="A89" s="1">
         <v>2015</v>
       </c>
@@ -6351,7 +6287,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17">
       <c r="A90" s="1">
         <v>2016</v>
       </c>
@@ -6404,7 +6340,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17">
       <c r="A91" s="1">
         <v>2017</v>
       </c>
@@ -6457,7 +6393,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17">
       <c r="A92" s="1">
         <v>2018</v>
       </c>
@@ -6510,7 +6446,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17">
       <c r="A93" s="1">
         <v>2019</v>
       </c>
@@ -6569,18 +6505,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>453</v>
       </c>
@@ -6588,7 +6520,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>60</v>
       </c>
@@ -6596,7 +6528,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>79</v>
       </c>
@@ -6604,7 +6536,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>72</v>
       </c>
@@ -6612,7 +6544,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>63</v>
       </c>
@@ -6620,7 +6552,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>74</v>
       </c>
@@ -6628,7 +6560,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>69</v>
       </c>
@@ -6636,7 +6568,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>81</v>
       </c>
@@ -6644,7 +6576,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>82</v>
       </c>
@@ -6652,7 +6584,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>68</v>
       </c>
@@ -6660,7 +6592,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
         <v>65</v>
       </c>
@@ -6668,7 +6600,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
         <v>88</v>
       </c>
@@ -6676,7 +6608,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
         <v>80</v>
       </c>
@@ -6684,7 +6616,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
         <v>61</v>
       </c>
@@ -6692,7 +6624,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
         <v>291</v>
       </c>
@@ -6700,7 +6632,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
         <v>292</v>
       </c>
@@ -6708,7 +6640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
         <v>100</v>
       </c>
@@ -6716,7 +6648,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
         <v>98</v>
       </c>
@@ -6724,7 +6656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
         <v>102</v>
       </c>
@@ -6732,7 +6664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
         <v>96</v>
       </c>
@@ -6740,7 +6672,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
         <v>297</v>
       </c>
@@ -6748,7 +6680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
         <v>86</v>
       </c>
@@ -6756,7 +6688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
         <v>101</v>
       </c>
@@ -6764,7 +6696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
         <v>91</v>
       </c>
@@ -6772,7 +6704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
         <v>290</v>
       </c>
@@ -6780,7 +6712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
         <v>94</v>
       </c>
@@ -6788,7 +6720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
         <v>103</v>
       </c>
@@ -6796,7 +6728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
         <v>296</v>
       </c>
@@ -6804,7 +6736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
         <v>73</v>
       </c>
@@ -6812,7 +6744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
         <v>71</v>
       </c>
@@ -6820,7 +6752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
         <v>313</v>
       </c>
@@ -6828,7 +6760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
         <v>314</v>
       </c>
@@ -6836,7 +6768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
         <v>62</v>
       </c>
@@ -6844,7 +6776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
         <v>59</v>
       </c>
@@ -6852,7 +6784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
         <v>289</v>
       </c>
@@ -6860,7 +6792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
         <v>295</v>
       </c>
@@ -6868,7 +6800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
         <v>299</v>
       </c>
@@ -6876,7 +6808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
         <v>293</v>
       </c>
@@ -6884,7 +6816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
         <v>298</v>
       </c>
@@ -6892,7 +6824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
         <v>294</v>
       </c>
@@ -6900,7 +6832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
         <v>56</v>
       </c>
@@ -6908,7 +6840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
         <v>300</v>
       </c>
@@ -6916,7 +6848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
         <v>301</v>
       </c>
@@ -6924,7 +6856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
         <v>302</v>
       </c>
@@ -6932,7 +6864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
         <v>303</v>
       </c>
@@ -6940,7 +6872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
         <v>304</v>
       </c>
@@ -6948,7 +6880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
         <v>305</v>
       </c>
@@ -6956,7 +6888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
         <v>306</v>
       </c>
@@ -6964,7 +6896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
         <v>308</v>
       </c>
@@ -6972,7 +6904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
         <v>309</v>
       </c>
@@ -6980,7 +6912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
         <v>310</v>
       </c>
@@ -6988,7 +6920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
         <v>311</v>
       </c>
@@ -6996,7 +6928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
         <v>312</v>
       </c>
@@ -7004,7 +6936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
         <v>315</v>
       </c>
@@ -7012,7 +6944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
         <v>316</v>
       </c>
@@ -7020,7 +6952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
         <v>307</v>
       </c>
@@ -7028,7 +6960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
         <v>97</v>
       </c>
@@ -7036,7 +6968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
         <v>288</v>
       </c>
@@ -7044,7 +6976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
         <v>287</v>
       </c>
@@ -7052,7 +6984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
         <v>58</v>
       </c>
@@ -7060,7 +6992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
         <v>64</v>
       </c>
@@ -7068,7 +7000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
         <v>66</v>
       </c>
@@ -7076,7 +7008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
         <v>67</v>
       </c>
@@ -7084,7 +7016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
         <v>70</v>
       </c>
@@ -7092,7 +7024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
         <v>75</v>
       </c>
@@ -7100,7 +7032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
         <v>76</v>
       </c>
@@ -7108,7 +7040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
         <v>77</v>
       </c>
@@ -7116,7 +7048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
         <v>78</v>
       </c>
@@ -7124,7 +7056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2">
       <c r="A69" s="1" t="s">
         <v>83</v>
       </c>
@@ -7132,7 +7064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2">
       <c r="A70" s="1" t="s">
         <v>84</v>
       </c>
@@ -7140,7 +7072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
         <v>85</v>
       </c>
@@ -7148,7 +7080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
         <v>87</v>
       </c>
@@ -7156,7 +7088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2">
       <c r="A73" s="1" t="s">
         <v>89</v>
       </c>
@@ -7164,7 +7096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2">
       <c r="A74" s="1" t="s">
         <v>90</v>
       </c>
@@ -7172,7 +7104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2">
       <c r="A75" s="1" t="s">
         <v>92</v>
       </c>
@@ -7180,7 +7112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2">
       <c r="A76" s="1" t="s">
         <v>93</v>
       </c>
@@ -7188,7 +7120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2">
       <c r="A77" s="1" t="s">
         <v>95</v>
       </c>
@@ -7196,7 +7128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2">
       <c r="A78" s="1" t="s">
         <v>57</v>
       </c>
@@ -7204,7 +7136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2">
       <c r="A79" s="1" t="s">
         <v>99</v>
       </c>
@@ -7212,7 +7144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2">
       <c r="A80" s="1" t="s">
         <v>104</v>
       </c>
@@ -7220,7 +7152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2">
       <c r="A81" s="1" t="s">
         <v>105</v>
       </c>
@@ -7228,7 +7160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2">
       <c r="A82" s="1" t="s">
         <v>286</v>
       </c>
@@ -7236,7 +7168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2">
       <c r="A83" s="1" t="s">
         <v>317</v>
       </c>
@@ -7250,18 +7182,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>454</v>
       </c>
@@ -7269,7 +7197,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -7277,7 +7205,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>33</v>
       </c>
@@ -7285,7 +7213,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -7293,7 +7221,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -7301,7 +7229,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
@@ -7309,7 +7237,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
@@ -7317,7 +7245,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
@@ -7325,7 +7253,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
@@ -7333,7 +7261,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
@@ -7341,7 +7269,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
         <v>35</v>
       </c>
@@ -7349,7 +7277,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
@@ -7357,7 +7285,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
         <v>47</v>
       </c>
@@ -7365,7 +7293,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
         <v>280</v>
       </c>
@@ -7373,7 +7301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
         <v>45</v>
       </c>
@@ -7381,7 +7309,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
@@ -7389,7 +7317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
         <v>278</v>
       </c>
@@ -7397,7 +7325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -7405,7 +7333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
         <v>279</v>
       </c>
@@ -7413,7 +7341,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
         <v>46</v>
       </c>
@@ -7421,7 +7349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
@@ -7429,7 +7357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
         <v>43</v>
       </c>
@@ -7437,7 +7365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
@@ -7445,7 +7373,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
         <v>40</v>
       </c>
@@ -7453,7 +7381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
         <v>32</v>
       </c>
@@ -7461,7 +7389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
         <v>44</v>
       </c>
@@ -7469,7 +7397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
         <v>281</v>
       </c>
@@ -7477,7 +7405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
         <v>282</v>
       </c>
@@ -7485,7 +7413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
         <v>283</v>
       </c>
@@ -7493,7 +7421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
         <v>284</v>
       </c>
@@ -7501,7 +7429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
         <v>285</v>
       </c>
